--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Nampt-Insr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Nampt-Insr.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.291246333333333</v>
+        <v>13.60671833333333</v>
       </c>
       <c r="H2">
-        <v>21.873739</v>
+        <v>40.820155</v>
       </c>
       <c r="I2">
-        <v>0.03926979358597627</v>
+        <v>0.07882970330332995</v>
       </c>
       <c r="J2">
-        <v>0.03926979358597627</v>
+        <v>0.07882970330332995</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.790333</v>
+        <v>12.800308</v>
       </c>
       <c r="N2">
-        <v>38.370999</v>
+        <v>38.400924</v>
       </c>
       <c r="O2">
-        <v>0.2187140167239762</v>
+        <v>0.2552188303259509</v>
       </c>
       <c r="P2">
-        <v>0.2187140167239762</v>
+        <v>0.2552188303259509</v>
       </c>
       <c r="Q2">
-        <v>93.25746858836233</v>
+        <v>174.1701855359134</v>
       </c>
       <c r="R2">
-        <v>839.317217295261</v>
+        <v>1567.53166982322</v>
       </c>
       <c r="S2">
-        <v>0.008588854291110306</v>
+        <v>0.02011882467201762</v>
       </c>
       <c r="T2">
-        <v>0.008588854291110306</v>
+        <v>0.02011882467201762</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.291246333333333</v>
+        <v>13.60671833333333</v>
       </c>
       <c r="H3">
-        <v>21.873739</v>
+        <v>40.820155</v>
       </c>
       <c r="I3">
-        <v>0.03926979358597627</v>
+        <v>0.07882970330332995</v>
       </c>
       <c r="J3">
-        <v>0.03926979358597627</v>
+        <v>0.07882970330332995</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.628896000000001</v>
+        <v>3.628896</v>
       </c>
       <c r="N3">
         <v>10.886688</v>
       </c>
       <c r="O3">
-        <v>0.06205392935692686</v>
+        <v>0.07235471150338896</v>
       </c>
       <c r="P3">
-        <v>0.06205392935692686</v>
+        <v>0.07235471150338896</v>
       </c>
       <c r="Q3">
-        <v>26.45917465404801</v>
+        <v>49.37736573295999</v>
       </c>
       <c r="R3">
-        <v>238.132571886432</v>
+        <v>444.39629159664</v>
       </c>
       <c r="S3">
-        <v>0.002436844997045271</v>
+        <v>0.005703700440410186</v>
       </c>
       <c r="T3">
-        <v>0.002436844997045271</v>
+        <v>0.005703700440410186</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.291246333333333</v>
+        <v>13.60671833333333</v>
       </c>
       <c r="H4">
-        <v>21.873739</v>
+        <v>40.820155</v>
       </c>
       <c r="I4">
-        <v>0.03926979358597627</v>
+        <v>0.07882970330332995</v>
       </c>
       <c r="J4">
-        <v>0.03926979358597627</v>
+        <v>0.07882970330332995</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.859786</v>
+        <v>5.520799</v>
       </c>
       <c r="N4">
-        <v>20.579358</v>
+        <v>16.562397</v>
       </c>
       <c r="O4">
-        <v>0.1173019771984746</v>
+        <v>0.1100764031025409</v>
       </c>
       <c r="P4">
-        <v>0.1173019771984746</v>
+        <v>0.1100764031025409</v>
       </c>
       <c r="Q4">
-        <v>50.01638951995133</v>
+        <v>75.11995696794834</v>
       </c>
       <c r="R4">
-        <v>450.147505679562</v>
+        <v>676.079612711535</v>
       </c>
       <c r="S4">
-        <v>0.004606424431810995</v>
+        <v>0.008677290197271047</v>
       </c>
       <c r="T4">
-        <v>0.004606424431810994</v>
+        <v>0.008677290197271047</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.291246333333333</v>
+        <v>13.60671833333333</v>
       </c>
       <c r="H5">
-        <v>21.873739</v>
+        <v>40.820155</v>
       </c>
       <c r="I5">
-        <v>0.03926979358597627</v>
+        <v>0.07882970330332995</v>
       </c>
       <c r="J5">
-        <v>0.03926979358597627</v>
+        <v>0.07882970330332995</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.351654000000002</v>
+        <v>2.905047666666667</v>
       </c>
       <c r="N5">
-        <v>25.054962</v>
+        <v>8.715143000000001</v>
       </c>
       <c r="O5">
-        <v>0.1428128409658187</v>
+        <v>0.0579222677710411</v>
       </c>
       <c r="P5">
-        <v>0.1428128409658187</v>
+        <v>0.0579222677710411</v>
       </c>
       <c r="Q5">
-        <v>60.89396660476868</v>
+        <v>39.52816534524056</v>
       </c>
       <c r="R5">
-        <v>548.0456994429181</v>
+        <v>355.753488107165</v>
       </c>
       <c r="S5">
-        <v>0.005608230786154558</v>
+        <v>0.0045659951830472</v>
       </c>
       <c r="T5">
-        <v>0.005608230786154557</v>
+        <v>0.0045659951830472</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.291246333333333</v>
+        <v>13.60671833333333</v>
       </c>
       <c r="H6">
-        <v>21.873739</v>
+        <v>40.820155</v>
       </c>
       <c r="I6">
-        <v>0.03926979358597627</v>
+        <v>0.07882970330332995</v>
       </c>
       <c r="J6">
-        <v>0.03926979358597627</v>
+        <v>0.07882970330332995</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.92892566666667</v>
+        <v>20.19342933333333</v>
       </c>
       <c r="N6">
-        <v>47.786777</v>
+        <v>60.580288</v>
       </c>
       <c r="O6">
-        <v>0.2723837850550339</v>
+        <v>0.4026265160746975</v>
       </c>
       <c r="P6">
-        <v>0.2723837850550339</v>
+        <v>0.4026265160746975</v>
       </c>
       <c r="Q6">
-        <v>116.1417208610225</v>
+        <v>274.7663051227377</v>
       </c>
       <c r="R6">
-        <v>1045.275487749203</v>
+        <v>2472.89674610464</v>
       </c>
       <c r="S6">
-        <v>0.01069645501527811</v>
+        <v>0.03173892880422181</v>
       </c>
       <c r="T6">
-        <v>0.01069645501527811</v>
+        <v>0.03173892880422181</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.291246333333333</v>
+        <v>13.60671833333333</v>
       </c>
       <c r="H7">
-        <v>21.873739</v>
+        <v>40.820155</v>
       </c>
       <c r="I7">
-        <v>0.03926979358597627</v>
+        <v>0.07882970330332995</v>
       </c>
       <c r="J7">
-        <v>0.03926979358597627</v>
+        <v>0.07882970330332995</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.92011866666667</v>
+        <v>5.105766</v>
       </c>
       <c r="N7">
-        <v>32.76035599999999</v>
+        <v>15.317298</v>
       </c>
       <c r="O7">
-        <v>0.1867334506997697</v>
+        <v>0.1018012712223807</v>
       </c>
       <c r="P7">
-        <v>0.1867334506997697</v>
+        <v>0.1018012712223806</v>
       </c>
       <c r="Q7">
-        <v>79.62127518789822</v>
+        <v>69.47271983791001</v>
       </c>
       <c r="R7">
-        <v>716.5914766910839</v>
+        <v>625.25447854119</v>
       </c>
       <c r="S7">
-        <v>0.007332984064577034</v>
+        <v>0.008024964006362089</v>
       </c>
       <c r="T7">
-        <v>0.007332984064577032</v>
+        <v>0.008024964006362087</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>42.48021</v>
       </c>
       <c r="I8">
-        <v>0.07626446846553873</v>
+        <v>0.08203551286277942</v>
       </c>
       <c r="J8">
-        <v>0.07626446846553875</v>
+        <v>0.08203551286277942</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.790333</v>
+        <v>12.800308</v>
       </c>
       <c r="N8">
-        <v>38.370999</v>
+        <v>38.400924</v>
       </c>
       <c r="O8">
-        <v>0.2187140167239762</v>
+        <v>0.2552188303259509</v>
       </c>
       <c r="P8">
-        <v>0.2187140167239762</v>
+        <v>0.2552188303259509</v>
       </c>
       <c r="Q8">
-        <v>181.11201060331</v>
+        <v>181.25325730156</v>
       </c>
       <c r="R8">
-        <v>1630.00809542979</v>
+        <v>1631.27931571404</v>
       </c>
       <c r="S8">
-        <v>0.01668010823141699</v>
+        <v>0.02093700763802806</v>
       </c>
       <c r="T8">
-        <v>0.016680108231417</v>
+        <v>0.02093700763802806</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>42.48021</v>
       </c>
       <c r="I9">
-        <v>0.07626446846553873</v>
+        <v>0.08203551286277942</v>
       </c>
       <c r="J9">
-        <v>0.07626446846553875</v>
+        <v>0.08203551286277942</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.628896000000001</v>
+        <v>3.628896</v>
       </c>
       <c r="N9">
         <v>10.886688</v>
       </c>
       <c r="O9">
-        <v>0.06205392935692686</v>
+        <v>0.07235471150338896</v>
       </c>
       <c r="P9">
-        <v>0.06205392935692686</v>
+        <v>0.07235471150338896</v>
       </c>
       <c r="Q9">
-        <v>51.38542138272</v>
+        <v>51.38542138271999</v>
       </c>
       <c r="R9">
-        <v>462.4687924444801</v>
+        <v>462.46879244448</v>
       </c>
       <c r="S9">
-        <v>0.004732509938604117</v>
+        <v>0.005935655866218959</v>
       </c>
       <c r="T9">
-        <v>0.004732509938604117</v>
+        <v>0.005935655866218959</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>42.48021</v>
       </c>
       <c r="I10">
-        <v>0.07626446846553873</v>
+        <v>0.08203551286277942</v>
       </c>
       <c r="J10">
-        <v>0.07626446846553875</v>
+        <v>0.08203551286277942</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.859786</v>
+        <v>5.520799</v>
       </c>
       <c r="N10">
-        <v>20.579358</v>
+        <v>16.562397</v>
       </c>
       <c r="O10">
-        <v>0.1173019771984746</v>
+        <v>0.1100764031025409</v>
       </c>
       <c r="P10">
-        <v>0.1173019771984746</v>
+        <v>0.1100764031025409</v>
       </c>
       <c r="Q10">
-        <v>97.13504994501999</v>
+        <v>78.17490029593</v>
       </c>
       <c r="R10">
-        <v>874.21544950518</v>
+        <v>703.57410266337</v>
       </c>
       <c r="S10">
-        <v>0.008945972940998413</v>
+        <v>0.009030174182606987</v>
       </c>
       <c r="T10">
-        <v>0.008945972940998413</v>
+        <v>0.009030174182606987</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>42.48021</v>
       </c>
       <c r="I11">
-        <v>0.07626446846553873</v>
+        <v>0.08203551286277942</v>
       </c>
       <c r="J11">
-        <v>0.07626446846553875</v>
+        <v>0.08203551286277942</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.351654000000002</v>
+        <v>2.905047666666667</v>
       </c>
       <c r="N11">
-        <v>25.054962</v>
+        <v>8.715143000000001</v>
       </c>
       <c r="O11">
-        <v>0.1428128409658187</v>
+        <v>0.0579222677710411</v>
       </c>
       <c r="P11">
-        <v>0.1428128409658187</v>
+        <v>0.0579222677710411</v>
       </c>
       <c r="Q11">
-        <v>118.26000525578</v>
+        <v>41.13567831333667</v>
       </c>
       <c r="R11">
-        <v>1064.34004730202</v>
+        <v>370.2211048200301</v>
       </c>
       <c r="S11">
-        <v>0.01089154540631168</v>
+        <v>0.004751682942772596</v>
       </c>
       <c r="T11">
-        <v>0.01089154540631168</v>
+        <v>0.004751682942772596</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>42.48021</v>
       </c>
       <c r="I12">
-        <v>0.07626446846553873</v>
+        <v>0.08203551286277942</v>
       </c>
       <c r="J12">
-        <v>0.07626446846553875</v>
+        <v>0.08203551286277942</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>15.92892566666667</v>
+        <v>20.19342933333333</v>
       </c>
       <c r="N12">
-        <v>47.786777</v>
+        <v>60.580288</v>
       </c>
       <c r="O12">
-        <v>0.2723837850550339</v>
+        <v>0.4026265160746975</v>
       </c>
       <c r="P12">
-        <v>0.2723837850550339</v>
+        <v>0.4026265160746975</v>
       </c>
       <c r="Q12">
-        <v>225.5547024647967</v>
+        <v>285.9403729000533</v>
       </c>
       <c r="R12">
-        <v>2029.99232218317</v>
+        <v>2573.46335610048</v>
       </c>
       <c r="S12">
-        <v>0.02077320458585372</v>
+        <v>0.03302967273834191</v>
       </c>
       <c r="T12">
-        <v>0.02077320458585372</v>
+        <v>0.03302967273834191</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>42.48021</v>
       </c>
       <c r="I13">
-        <v>0.07626446846553873</v>
+        <v>0.08203551286277942</v>
       </c>
       <c r="J13">
-        <v>0.07626446846553875</v>
+        <v>0.08203551286277942</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.92011866666667</v>
+        <v>5.105766</v>
       </c>
       <c r="N13">
-        <v>32.76035599999999</v>
+        <v>15.317298</v>
       </c>
       <c r="O13">
-        <v>0.1867334506997697</v>
+        <v>0.1018012712223807</v>
       </c>
       <c r="P13">
-        <v>0.1867334506997697</v>
+        <v>0.1018012712223806</v>
       </c>
       <c r="Q13">
-        <v>154.6296447283066</v>
+        <v>72.29800396361999</v>
       </c>
       <c r="R13">
-        <v>1391.66680255476</v>
+        <v>650.68203567258</v>
       </c>
       <c r="S13">
-        <v>0.01424112736235382</v>
+        <v>0.008351319494810905</v>
       </c>
       <c r="T13">
-        <v>0.01424112736235382</v>
+        <v>0.008351319494810903</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>58.14950233333332</v>
+        <v>48.06412</v>
       </c>
       <c r="H14">
-        <v>174.448507</v>
+        <v>144.19236</v>
       </c>
       <c r="I14">
-        <v>0.3131863675099961</v>
+        <v>0.2784565849249456</v>
       </c>
       <c r="J14">
-        <v>0.3131863675099962</v>
+        <v>0.2784565849249456</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.790333</v>
+        <v>12.800308</v>
       </c>
       <c r="N14">
-        <v>38.370999</v>
+        <v>38.400924</v>
       </c>
       <c r="O14">
-        <v>0.2187140167239762</v>
+        <v>0.2552188303259509</v>
       </c>
       <c r="P14">
-        <v>0.2187140167239762</v>
+        <v>0.2552188303259509</v>
       </c>
       <c r="Q14">
-        <v>743.7514986276101</v>
+        <v>615.23553974896</v>
       </c>
       <c r="R14">
-        <v>6693.763487648492</v>
+        <v>5537.119857740641</v>
       </c>
       <c r="S14">
-        <v>0.06849824842130264</v>
+        <v>0.07106736390110342</v>
       </c>
       <c r="T14">
-        <v>0.06849824842130266</v>
+        <v>0.07106736390110342</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>58.14950233333332</v>
+        <v>48.06412</v>
       </c>
       <c r="H15">
-        <v>174.448507</v>
+        <v>144.19236</v>
       </c>
       <c r="I15">
-        <v>0.3131863675099961</v>
+        <v>0.2784565849249456</v>
       </c>
       <c r="J15">
-        <v>0.3131863675099962</v>
+        <v>0.2784565849249456</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.628896000000001</v>
+        <v>3.628896</v>
       </c>
       <c r="N15">
         <v>10.886688</v>
       </c>
       <c r="O15">
-        <v>0.06205392935692686</v>
+        <v>0.07235471150338896</v>
       </c>
       <c r="P15">
-        <v>0.06205392935692686</v>
+        <v>0.07235471150338896</v>
       </c>
       <c r="Q15">
-        <v>211.018496419424</v>
+        <v>174.41969281152</v>
       </c>
       <c r="R15">
-        <v>1899.166467774816</v>
+        <v>1569.77723530368</v>
       </c>
       <c r="S15">
-        <v>0.01943444472501783</v>
+        <v>0.02014764586846336</v>
       </c>
       <c r="T15">
-        <v>0.01943444472501784</v>
+        <v>0.02014764586846336</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>58.14950233333332</v>
+        <v>48.06412</v>
       </c>
       <c r="H16">
-        <v>174.448507</v>
+        <v>144.19236</v>
       </c>
       <c r="I16">
-        <v>0.3131863675099961</v>
+        <v>0.2784565849249456</v>
       </c>
       <c r="J16">
-        <v>0.3131863675099962</v>
+        <v>0.2784565849249456</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.859786</v>
+        <v>5.520799</v>
       </c>
       <c r="N16">
-        <v>20.579358</v>
+        <v>16.562397</v>
       </c>
       <c r="O16">
-        <v>0.1173019771984746</v>
+        <v>0.1100764031025409</v>
       </c>
       <c r="P16">
-        <v>0.1173019771984746</v>
+        <v>0.1100764031025409</v>
       </c>
       <c r="Q16">
-        <v>398.8931420131673</v>
+        <v>265.35234563188</v>
       </c>
       <c r="R16">
-        <v>3590.038278118505</v>
+        <v>2388.17111068692</v>
       </c>
       <c r="S16">
-        <v>0.03673738014053066</v>
+        <v>0.03065149928875522</v>
       </c>
       <c r="T16">
-        <v>0.03673738014053066</v>
+        <v>0.03065149928875522</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>58.14950233333332</v>
+        <v>48.06412</v>
       </c>
       <c r="H17">
-        <v>174.448507</v>
+        <v>144.19236</v>
       </c>
       <c r="I17">
-        <v>0.3131863675099961</v>
+        <v>0.2784565849249456</v>
       </c>
       <c r="J17">
-        <v>0.3131863675099962</v>
+        <v>0.2784565849249456</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.351654000000002</v>
+        <v>2.905047666666667</v>
       </c>
       <c r="N17">
-        <v>25.054962</v>
+        <v>8.715143000000001</v>
       </c>
       <c r="O17">
-        <v>0.1428128409658187</v>
+        <v>0.0579222677710411</v>
       </c>
       <c r="P17">
-        <v>0.1428128409658187</v>
+        <v>0.0579222677710411</v>
       </c>
       <c r="Q17">
-        <v>485.6445237601927</v>
+        <v>139.6285596563867</v>
       </c>
       <c r="R17">
-        <v>4370.800713841734</v>
+        <v>1256.65703690748</v>
       </c>
       <c r="S17">
-        <v>0.04472703489586753</v>
+        <v>0.01612883687463234</v>
       </c>
       <c r="T17">
-        <v>0.04472703489586753</v>
+        <v>0.01612883687463234</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>58.14950233333332</v>
+        <v>48.06412</v>
       </c>
       <c r="H18">
-        <v>174.448507</v>
+        <v>144.19236</v>
       </c>
       <c r="I18">
-        <v>0.3131863675099961</v>
+        <v>0.2784565849249456</v>
       </c>
       <c r="J18">
-        <v>0.3131863675099962</v>
+        <v>0.2784565849249456</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>15.92892566666667</v>
+        <v>20.19342933333333</v>
       </c>
       <c r="N18">
-        <v>47.786777</v>
+        <v>60.580288</v>
       </c>
       <c r="O18">
-        <v>0.2723837850550339</v>
+        <v>0.4026265160746975</v>
       </c>
       <c r="P18">
-        <v>0.2723837850550339</v>
+        <v>0.4026265160746975</v>
       </c>
       <c r="Q18">
-        <v>926.2591002213264</v>
+        <v>970.5794106888533</v>
       </c>
       <c r="R18">
-        <v>8336.331901991938</v>
+        <v>8735.21469619968</v>
       </c>
       <c r="S18">
-        <v>0.08530688821000965</v>
+        <v>0.112114004666389</v>
       </c>
       <c r="T18">
-        <v>0.08530688821000966</v>
+        <v>0.112114004666389</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>58.14950233333332</v>
+        <v>48.06412</v>
       </c>
       <c r="H19">
-        <v>174.448507</v>
+        <v>144.19236</v>
       </c>
       <c r="I19">
-        <v>0.3131863675099961</v>
+        <v>0.2784565849249456</v>
       </c>
       <c r="J19">
-        <v>0.3131863675099962</v>
+        <v>0.2784565849249456</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>10.92011866666667</v>
+        <v>5.105766</v>
       </c>
       <c r="N19">
-        <v>32.76035599999999</v>
+        <v>15.317298</v>
       </c>
       <c r="O19">
-        <v>0.1867334506997697</v>
+        <v>0.1018012712223807</v>
       </c>
       <c r="P19">
-        <v>0.1867334506997697</v>
+        <v>0.1018012712223806</v>
       </c>
       <c r="Q19">
-        <v>634.9994658876101</v>
+        <v>245.40414971592</v>
       </c>
       <c r="R19">
-        <v>5714.99519298849</v>
+        <v>2208.63734744328</v>
       </c>
       <c r="S19">
-        <v>0.05848237111726783</v>
+        <v>0.02834723432560226</v>
       </c>
       <c r="T19">
-        <v>0.05848237111726782</v>
+        <v>0.02834723432560225</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.238731333333334</v>
+        <v>7.902926000000001</v>
       </c>
       <c r="H20">
-        <v>18.716194</v>
+        <v>23.708778</v>
       </c>
       <c r="I20">
-        <v>0.0336010718192755</v>
+        <v>0.04578512588755522</v>
       </c>
       <c r="J20">
-        <v>0.03360107181927551</v>
+        <v>0.04578512588755522</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>12.790333</v>
+        <v>12.800308</v>
       </c>
       <c r="N20">
-        <v>38.370999</v>
+        <v>38.400924</v>
       </c>
       <c r="O20">
-        <v>0.2187140167239762</v>
+        <v>0.2552188303259509</v>
       </c>
       <c r="P20">
-        <v>0.2187140167239762</v>
+        <v>0.2552188303259509</v>
       </c>
       <c r="Q20">
-        <v>79.79545125086733</v>
+        <v>101.159886901208</v>
       </c>
       <c r="R20">
-        <v>718.159061257806</v>
+        <v>910.4389821108722</v>
       </c>
       <c r="S20">
-        <v>0.007349025383824547</v>
+        <v>0.01168522627534826</v>
       </c>
       <c r="T20">
-        <v>0.007349025383824549</v>
+        <v>0.01168522627534826</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.238731333333334</v>
+        <v>7.902926000000001</v>
       </c>
       <c r="H21">
-        <v>18.716194</v>
+        <v>23.708778</v>
       </c>
       <c r="I21">
-        <v>0.0336010718192755</v>
+        <v>0.04578512588755522</v>
       </c>
       <c r="J21">
-        <v>0.03360107181927551</v>
+        <v>0.04578512588755522</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.628896000000001</v>
+        <v>3.628896</v>
       </c>
       <c r="N21">
         <v>10.886688</v>
       </c>
       <c r="O21">
-        <v>0.06205392935692686</v>
+        <v>0.07235471150338896</v>
       </c>
       <c r="P21">
-        <v>0.06205392935692686</v>
+        <v>0.07235471150338896</v>
       </c>
       <c r="Q21">
-        <v>22.63970718060801</v>
+        <v>28.678896549696</v>
       </c>
       <c r="R21">
-        <v>203.757364625472</v>
+        <v>258.110068947264</v>
       </c>
       <c r="S21">
-        <v>0.002085078536990348</v>
+        <v>0.003312769574740403</v>
       </c>
       <c r="T21">
-        <v>0.002085078536990348</v>
+        <v>0.003312769574740403</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.238731333333334</v>
+        <v>7.902926000000001</v>
       </c>
       <c r="H22">
-        <v>18.716194</v>
+        <v>23.708778</v>
       </c>
       <c r="I22">
-        <v>0.0336010718192755</v>
+        <v>0.04578512588755522</v>
       </c>
       <c r="J22">
-        <v>0.03360107181927551</v>
+        <v>0.04578512588755522</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.859786</v>
+        <v>5.520799</v>
       </c>
       <c r="N22">
-        <v>20.579358</v>
+        <v>16.562397</v>
       </c>
       <c r="O22">
-        <v>0.1173019771984746</v>
+        <v>0.1100764031025409</v>
       </c>
       <c r="P22">
-        <v>0.1173019771984746</v>
+        <v>0.1100764031025409</v>
       </c>
       <c r="Q22">
-        <v>42.79636185816133</v>
+        <v>43.63046595787401</v>
       </c>
       <c r="R22">
-        <v>385.167256723452</v>
+        <v>392.674193620866</v>
       </c>
       <c r="S22">
-        <v>0.003941472160388964</v>
+        <v>0.005039861973299109</v>
       </c>
       <c r="T22">
-        <v>0.003941472160388965</v>
+        <v>0.005039861973299109</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.238731333333334</v>
+        <v>7.902926000000001</v>
       </c>
       <c r="H23">
-        <v>18.716194</v>
+        <v>23.708778</v>
       </c>
       <c r="I23">
-        <v>0.0336010718192755</v>
+        <v>0.04578512588755522</v>
       </c>
       <c r="J23">
-        <v>0.03360107181927551</v>
+        <v>0.04578512588755522</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>8.351654000000002</v>
+        <v>2.905047666666667</v>
       </c>
       <c r="N23">
-        <v>25.054962</v>
+        <v>8.715143000000001</v>
       </c>
       <c r="O23">
-        <v>0.1428128409658187</v>
+        <v>0.0579222677710411</v>
       </c>
       <c r="P23">
-        <v>0.1428128409658187</v>
+        <v>0.0579222677710411</v>
       </c>
       <c r="Q23">
-        <v>52.10372549495868</v>
+        <v>22.95837673613934</v>
       </c>
       <c r="R23">
-        <v>468.9335294546281</v>
+        <v>206.6253906252541</v>
       </c>
       <c r="S23">
-        <v>0.004798664526007246</v>
+        <v>0.002651978321589799</v>
       </c>
       <c r="T23">
-        <v>0.004798664526007246</v>
+        <v>0.002651978321589799</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.238731333333334</v>
+        <v>7.902926000000001</v>
       </c>
       <c r="H24">
-        <v>18.716194</v>
+        <v>23.708778</v>
       </c>
       <c r="I24">
-        <v>0.0336010718192755</v>
+        <v>0.04578512588755522</v>
       </c>
       <c r="J24">
-        <v>0.03360107181927551</v>
+        <v>0.04578512588755522</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>15.92892566666667</v>
+        <v>20.19342933333333</v>
       </c>
       <c r="N24">
-        <v>47.786777</v>
+        <v>60.580288</v>
       </c>
       <c r="O24">
-        <v>0.2723837850550339</v>
+        <v>0.4026265160746975</v>
       </c>
       <c r="P24">
-        <v>0.2723837850550339</v>
+        <v>0.4026265160746975</v>
       </c>
       <c r="Q24">
-        <v>99.3762876629709</v>
+        <v>159.5871777075627</v>
       </c>
       <c r="R24">
-        <v>894.386588966738</v>
+        <v>1436.284599368064</v>
       </c>
       <c r="S24">
-        <v>0.009152387124040297</v>
+        <v>0.0184343057241478</v>
       </c>
       <c r="T24">
-        <v>0.009152387124040299</v>
+        <v>0.0184343057241478</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.238731333333334</v>
+        <v>7.902926000000001</v>
       </c>
       <c r="H25">
-        <v>18.716194</v>
+        <v>23.708778</v>
       </c>
       <c r="I25">
-        <v>0.0336010718192755</v>
+        <v>0.04578512588755522</v>
       </c>
       <c r="J25">
-        <v>0.03360107181927551</v>
+        <v>0.04578512588755522</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>10.92011866666667</v>
+        <v>5.105766</v>
       </c>
       <c r="N25">
-        <v>32.76035599999999</v>
+        <v>15.317298</v>
       </c>
       <c r="O25">
-        <v>0.1867334506997697</v>
+        <v>0.1018012712223807</v>
       </c>
       <c r="P25">
-        <v>0.1867334506997697</v>
+        <v>0.1018012712223806</v>
       </c>
       <c r="Q25">
-        <v>68.12768648945155</v>
+        <v>40.350490871316</v>
       </c>
       <c r="R25">
-        <v>613.1491784050639</v>
+        <v>363.154417841844</v>
       </c>
       <c r="S25">
-        <v>0.006274444088024105</v>
+        <v>0.00466098401842985</v>
       </c>
       <c r="T25">
-        <v>0.006274444088024104</v>
+        <v>0.00466098401842985</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>43.51145333333333</v>
+        <v>43.157912</v>
       </c>
       <c r="H26">
-        <v>130.53436</v>
+        <v>129.473736</v>
       </c>
       <c r="I26">
-        <v>0.2343475604732011</v>
+        <v>0.250032764315904</v>
       </c>
       <c r="J26">
-        <v>0.2343475604732011</v>
+        <v>0.250032764315904</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>12.790333</v>
+        <v>12.800308</v>
       </c>
       <c r="N26">
-        <v>38.370999</v>
+        <v>38.400924</v>
       </c>
       <c r="O26">
-        <v>0.2187140167239762</v>
+        <v>0.2552188303259509</v>
       </c>
       <c r="P26">
-        <v>0.2187140167239762</v>
+        <v>0.2552188303259509</v>
       </c>
       <c r="Q26">
-        <v>556.5259774472933</v>
+        <v>552.4345662368961</v>
       </c>
       <c r="R26">
-        <v>5008.733797025639</v>
+        <v>4971.911096132065</v>
       </c>
       <c r="S26">
-        <v>0.05125509626055871</v>
+        <v>0.06381306965186918</v>
       </c>
       <c r="T26">
-        <v>0.05125509626055872</v>
+        <v>0.06381306965186917</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>43.51145333333333</v>
+        <v>43.157912</v>
       </c>
       <c r="H27">
-        <v>130.53436</v>
+        <v>129.473736</v>
       </c>
       <c r="I27">
-        <v>0.2343475604732011</v>
+        <v>0.250032764315904</v>
       </c>
       <c r="J27">
-        <v>0.2343475604732011</v>
+        <v>0.250032764315904</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>3.628896000000001</v>
+        <v>3.628896</v>
       </c>
       <c r="N27">
         <v>10.886688</v>
       </c>
       <c r="O27">
-        <v>0.06205392935692686</v>
+        <v>0.07235471150338896</v>
       </c>
       <c r="P27">
-        <v>0.06205392935692686</v>
+        <v>0.07235471150338896</v>
       </c>
       <c r="Q27">
-        <v>157.89853895552</v>
+        <v>156.615574225152</v>
       </c>
       <c r="R27">
-        <v>1421.08685059968</v>
+        <v>1409.540168026368</v>
       </c>
       <c r="S27">
-        <v>0.01454218696257216</v>
+        <v>0.01809104852847208</v>
       </c>
       <c r="T27">
-        <v>0.01454218696257217</v>
+        <v>0.01809104852847208</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>43.51145333333333</v>
+        <v>43.157912</v>
       </c>
       <c r="H28">
-        <v>130.53436</v>
+        <v>129.473736</v>
       </c>
       <c r="I28">
-        <v>0.2343475604732011</v>
+        <v>0.250032764315904</v>
       </c>
       <c r="J28">
-        <v>0.2343475604732011</v>
+        <v>0.250032764315904</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>6.859786</v>
+        <v>5.520799</v>
       </c>
       <c r="N28">
-        <v>20.579358</v>
+        <v>16.562397</v>
       </c>
       <c r="O28">
-        <v>0.1173019771984746</v>
+        <v>0.1100764031025409</v>
       </c>
       <c r="P28">
-        <v>0.1173019771984746</v>
+        <v>0.1100764031025409</v>
       </c>
       <c r="Q28">
-        <v>298.4792584156533</v>
+        <v>238.266157411688</v>
       </c>
       <c r="R28">
-        <v>2686.31332574088</v>
+        <v>2144.395416705192</v>
       </c>
       <c r="S28">
-        <v>0.02748943219514559</v>
+        <v>0.02752270735368006</v>
       </c>
       <c r="T28">
-        <v>0.02748943219514559</v>
+        <v>0.02752270735368005</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>43.51145333333333</v>
+        <v>43.157912</v>
       </c>
       <c r="H29">
-        <v>130.53436</v>
+        <v>129.473736</v>
       </c>
       <c r="I29">
-        <v>0.2343475604732011</v>
+        <v>0.250032764315904</v>
       </c>
       <c r="J29">
-        <v>0.2343475604732011</v>
+        <v>0.250032764315904</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>8.351654000000002</v>
+        <v>2.905047666666667</v>
       </c>
       <c r="N29">
-        <v>25.054962</v>
+        <v>8.715143000000001</v>
       </c>
       <c r="O29">
-        <v>0.1428128409658187</v>
+        <v>0.0579222677710411</v>
       </c>
       <c r="P29">
-        <v>0.1428128409658187</v>
+        <v>0.0579222677710411</v>
       </c>
       <c r="Q29">
-        <v>363.3926032771467</v>
+        <v>125.3757915538054</v>
       </c>
       <c r="R29">
-        <v>3270.53342949432</v>
+        <v>1128.382123984248</v>
       </c>
       <c r="S29">
-        <v>0.03346784088458685</v>
+        <v>0.0144824647262394</v>
       </c>
       <c r="T29">
-        <v>0.03346784088458685</v>
+        <v>0.0144824647262394</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>43.51145333333333</v>
+        <v>43.157912</v>
       </c>
       <c r="H30">
-        <v>130.53436</v>
+        <v>129.473736</v>
       </c>
       <c r="I30">
-        <v>0.2343475604732011</v>
+        <v>0.250032764315904</v>
       </c>
       <c r="J30">
-        <v>0.2343475604732011</v>
+        <v>0.250032764315904</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>15.92892566666667</v>
+        <v>20.19342933333333</v>
       </c>
       <c r="N30">
-        <v>47.786777</v>
+        <v>60.580288</v>
       </c>
       <c r="O30">
-        <v>0.2723837850550339</v>
+        <v>0.4026265160746975</v>
       </c>
       <c r="P30">
-        <v>0.2723837850550339</v>
+        <v>0.4026265160746975</v>
       </c>
       <c r="Q30">
-        <v>693.0907057953021</v>
+        <v>871.5062461462186</v>
       </c>
       <c r="R30">
-        <v>6237.81635215772</v>
+        <v>7843.556215315967</v>
       </c>
       <c r="S30">
-        <v>0.06383247554010396</v>
+        <v>0.1006698208010384</v>
       </c>
       <c r="T30">
-        <v>0.06383247554010398</v>
+        <v>0.1006698208010384</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>43.51145333333333</v>
+        <v>43.157912</v>
       </c>
       <c r="H31">
-        <v>130.53436</v>
+        <v>129.473736</v>
       </c>
       <c r="I31">
-        <v>0.2343475604732011</v>
+        <v>0.250032764315904</v>
       </c>
       <c r="J31">
-        <v>0.2343475604732011</v>
+        <v>0.250032764315904</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>10.92011866666667</v>
+        <v>5.105766</v>
       </c>
       <c r="N31">
-        <v>32.76035599999999</v>
+        <v>15.317298</v>
       </c>
       <c r="O31">
-        <v>0.1867334506997697</v>
+        <v>0.1018012712223807</v>
       </c>
       <c r="P31">
-        <v>0.1867334506997697</v>
+        <v>0.1018012712223806</v>
       </c>
       <c r="Q31">
-        <v>475.1502337591288</v>
+        <v>220.354199720592</v>
       </c>
       <c r="R31">
-        <v>4276.352103832159</v>
+        <v>1983.187797485328</v>
       </c>
       <c r="S31">
-        <v>0.0437605286302338</v>
+        <v>0.02545365325460493</v>
       </c>
       <c r="T31">
-        <v>0.04376052863023379</v>
+        <v>0.02545365325460492</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>56.31960166666666</v>
+        <v>45.71728</v>
       </c>
       <c r="H32">
-        <v>168.958805</v>
+        <v>137.15184</v>
       </c>
       <c r="I32">
-        <v>0.3033307381460122</v>
+        <v>0.2648603087054858</v>
       </c>
       <c r="J32">
-        <v>0.3033307381460122</v>
+        <v>0.2648603087054858</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>12.790333</v>
+        <v>12.800308</v>
       </c>
       <c r="N32">
-        <v>38.370999</v>
+        <v>38.400924</v>
       </c>
       <c r="O32">
-        <v>0.2187140167239762</v>
+        <v>0.2552188303259509</v>
       </c>
       <c r="P32">
-        <v>0.2187140167239762</v>
+        <v>0.2552188303259509</v>
       </c>
       <c r="Q32">
-        <v>720.3464597440216</v>
+        <v>585.19526492224</v>
       </c>
       <c r="R32">
-        <v>6483.118137696194</v>
+        <v>5266.75738430016</v>
       </c>
       <c r="S32">
-        <v>0.06634268413576294</v>
+        <v>0.06759733818758436</v>
       </c>
       <c r="T32">
-        <v>0.06634268413576294</v>
+        <v>0.06759733818758436</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>56.31960166666666</v>
+        <v>45.71728</v>
       </c>
       <c r="H33">
-        <v>168.958805</v>
+        <v>137.15184</v>
       </c>
       <c r="I33">
-        <v>0.3033307381460122</v>
+        <v>0.2648603087054858</v>
       </c>
       <c r="J33">
-        <v>0.3033307381460122</v>
+        <v>0.2648603087054858</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2483,28 +2483,28 @@
         <v>1</v>
       </c>
       <c r="M33">
-        <v>3.628896000000001</v>
+        <v>3.628896</v>
       </c>
       <c r="N33">
         <v>10.886688</v>
       </c>
       <c r="O33">
-        <v>0.06205392935692686</v>
+        <v>0.07235471150338896</v>
       </c>
       <c r="P33">
-        <v>0.06205392935692686</v>
+        <v>0.07235471150338896</v>
       </c>
       <c r="Q33">
-        <v>204.37797720976</v>
+        <v>165.90325452288</v>
       </c>
       <c r="R33">
-        <v>1839.40179488784</v>
+        <v>1493.12929070592</v>
       </c>
       <c r="S33">
-        <v>0.01882286419669712</v>
+        <v>0.01916389122508396</v>
       </c>
       <c r="T33">
-        <v>0.01882286419669712</v>
+        <v>0.01916389122508396</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>56.31960166666666</v>
+        <v>45.71728</v>
       </c>
       <c r="H34">
-        <v>168.958805</v>
+        <v>137.15184</v>
       </c>
       <c r="I34">
-        <v>0.3033307381460122</v>
+        <v>0.2648603087054858</v>
       </c>
       <c r="J34">
-        <v>0.3033307381460122</v>
+        <v>0.2648603087054858</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>6.859786</v>
+        <v>5.520799</v>
       </c>
       <c r="N34">
-        <v>20.579358</v>
+        <v>16.562397</v>
       </c>
       <c r="O34">
-        <v>0.1173019771984746</v>
+        <v>0.1100764031025409</v>
       </c>
       <c r="P34">
-        <v>0.1173019771984746</v>
+        <v>0.1100764031025409</v>
       </c>
       <c r="Q34">
-        <v>386.3404150385766</v>
+        <v>252.39591370672</v>
       </c>
       <c r="R34">
-        <v>3477.063735347189</v>
+        <v>2271.56322336048</v>
       </c>
       <c r="S34">
-        <v>0.03558129532960001</v>
+        <v>0.02915487010692848</v>
       </c>
       <c r="T34">
-        <v>0.0355812953296</v>
+        <v>0.02915487010692848</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>56.31960166666666</v>
+        <v>45.71728</v>
       </c>
       <c r="H35">
-        <v>168.958805</v>
+        <v>137.15184</v>
       </c>
       <c r="I35">
-        <v>0.3033307381460122</v>
+        <v>0.2648603087054858</v>
       </c>
       <c r="J35">
-        <v>0.3033307381460122</v>
+        <v>0.2648603087054858</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>8.351654000000002</v>
+        <v>2.905047666666667</v>
       </c>
       <c r="N35">
-        <v>25.054962</v>
+        <v>8.715143000000001</v>
       </c>
       <c r="O35">
-        <v>0.1428128409658187</v>
+        <v>0.0579222677710411</v>
       </c>
       <c r="P35">
-        <v>0.1428128409658187</v>
+        <v>0.0579222677710411</v>
       </c>
       <c r="Q35">
-        <v>470.3618265378234</v>
+        <v>132.8108775903467</v>
       </c>
       <c r="R35">
-        <v>4233.25643884041</v>
+        <v>1195.29789831312</v>
       </c>
       <c r="S35">
-        <v>0.04331952446689084</v>
+        <v>0.01534130972275976</v>
       </c>
       <c r="T35">
-        <v>0.04331952446689084</v>
+        <v>0.01534130972275976</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>56.31960166666666</v>
+        <v>45.71728</v>
       </c>
       <c r="H36">
-        <v>168.958805</v>
+        <v>137.15184</v>
       </c>
       <c r="I36">
-        <v>0.3033307381460122</v>
+        <v>0.2648603087054858</v>
       </c>
       <c r="J36">
-        <v>0.3033307381460122</v>
+        <v>0.2648603087054858</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>15.92892566666667</v>
+        <v>20.19342933333333</v>
       </c>
       <c r="N36">
-        <v>47.786777</v>
+        <v>60.580288</v>
       </c>
       <c r="O36">
-        <v>0.2723837850550339</v>
+        <v>0.4026265160746975</v>
       </c>
       <c r="P36">
-        <v>0.2723837850550339</v>
+        <v>0.4026265160746975</v>
       </c>
       <c r="Q36">
-        <v>897.1107485246093</v>
+        <v>923.1886629922132</v>
       </c>
       <c r="R36">
-        <v>8073.996736721484</v>
+        <v>8308.69796692992</v>
       </c>
       <c r="S36">
-        <v>0.08262237457974816</v>
+        <v>0.1066397833405586</v>
       </c>
       <c r="T36">
-        <v>0.08262237457974816</v>
+        <v>0.1066397833405586</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>56.31960166666666</v>
+        <v>45.71728</v>
       </c>
       <c r="H37">
-        <v>168.958805</v>
+        <v>137.15184</v>
       </c>
       <c r="I37">
-        <v>0.3033307381460122</v>
+        <v>0.2648603087054858</v>
       </c>
       <c r="J37">
-        <v>0.3033307381460122</v>
+        <v>0.2648603087054858</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>10.92011866666667</v>
+        <v>5.105766</v>
       </c>
       <c r="N37">
-        <v>32.76035599999999</v>
+        <v>15.317298</v>
       </c>
       <c r="O37">
-        <v>0.1867334506997697</v>
+        <v>0.1018012712223807</v>
       </c>
       <c r="P37">
-        <v>0.1867334506997697</v>
+        <v>0.1018012712223806</v>
       </c>
       <c r="Q37">
-        <v>615.0167334593976</v>
+        <v>233.42173383648</v>
       </c>
       <c r="R37">
-        <v>5535.150601134578</v>
+        <v>2100.79560452832</v>
       </c>
       <c r="S37">
-        <v>0.05664199543731313</v>
+        <v>0.02696311612257063</v>
       </c>
       <c r="T37">
-        <v>0.05664199543731312</v>
+        <v>0.02696311612257063</v>
       </c>
     </row>
   </sheetData>
